--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,90 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1200</v>
       </c>
       <c r="G17" s="3">
         <v>1200</v>
       </c>
       <c r="H17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3800</v>
       </c>
       <c r="F18" s="3">
         <v>3800</v>
       </c>
       <c r="G18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H18" s="3">
         <v>3700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3800</v>
       </c>
       <c r="I18" s="3">
         <v>3800</v>
       </c>
       <c r="J18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1041,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
         <v>-2400</v>
       </c>
       <c r="F20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,11 +1100,14 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,42 +1135,48 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1400</v>
       </c>
       <c r="F23" s="3">
         <v>1400</v>
       </c>
       <c r="G23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1140,22 +1185,25 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1100</v>
       </c>
       <c r="J26" s="3">
         <v>1100</v>
       </c>
       <c r="K26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1100</v>
       </c>
       <c r="J27" s="3">
         <v>1100</v>
       </c>
       <c r="K27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
         <v>2400</v>
       </c>
       <c r="F32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1100</v>
       </c>
       <c r="J33" s="3">
         <v>1100</v>
       </c>
       <c r="K33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1100</v>
       </c>
       <c r="J35" s="3">
         <v>1100</v>
       </c>
       <c r="K35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,66 +1618,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E42" s="3">
         <v>22800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>15900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1712,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1744,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1776,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,23 +1808,26 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
@@ -1736,37 +1840,43 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>12900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>12400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>492800</v>
+      </c>
+      <c r="E54" s="3">
         <v>484600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
         <v>457700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>434800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,13 +2094,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -1979,23 +2109,26 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,8 +2156,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2188,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2220,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2232,7 @@
         <v>5000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2108,10 +2250,13 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>442500</v>
+      </c>
+      <c r="E66" s="3">
         <v>435100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>410500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>388500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E72" s="3">
         <v>36300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>34300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E76" s="3">
         <v>49500</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
         <v>47200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1100</v>
       </c>
       <c r="J81" s="3">
         <v>1100</v>
       </c>
       <c r="K81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2831,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3069,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3800</v>
       </c>
       <c r="G18" s="3">
         <v>3800</v>
       </c>
       <c r="H18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I18" s="3">
         <v>3700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3800</v>
       </c>
       <c r="J18" s="3">
         <v>3800</v>
       </c>
       <c r="K18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,40 +1075,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2400</v>
       </c>
       <c r="F20" s="3">
         <v>-2400</v>
       </c>
       <c r="G20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1103,11 +1140,14 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,48 +1178,54 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1400</v>
       </c>
       <c r="G23" s="3">
         <v>1400</v>
       </c>
       <c r="H23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1188,22 +1234,25 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1100</v>
       </c>
       <c r="K26" s="3">
         <v>1100</v>
       </c>
       <c r="L26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1100</v>
       </c>
       <c r="K27" s="3">
         <v>1100</v>
       </c>
       <c r="L27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2400</v>
       </c>
       <c r="F32" s="3">
         <v>2400</v>
       </c>
       <c r="G32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1100</v>
       </c>
       <c r="K33" s="3">
         <v>1100</v>
       </c>
       <c r="L33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1100</v>
       </c>
       <c r="K35" s="3">
         <v>1100</v>
       </c>
       <c r="L35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,8 +1705,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1628,63 +1715,69 @@
         <v>6900</v>
       </c>
       <c r="E41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E42" s="3">
         <v>20300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>22800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>15900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1779,8 +1878,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1811,28 +1913,31 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+      <c r="I47" s="3">
+        <v>1700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>5</v>
@@ -1843,40 +1948,46 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>12400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>513100</v>
+      </c>
+      <c r="E54" s="3">
         <v>492800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>484600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>457700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>434800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,40 +2225,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,8 +2293,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2191,8 +2328,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2223,19 +2363,22 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E61" s="3">
         <v>5000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2253,10 +2396,13 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>461900</v>
+      </c>
+      <c r="E66" s="3">
         <v>442500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>435100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>410500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>388500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E72" s="3">
         <v>37300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>36300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>34300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E76" s="3">
         <v>50300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49500</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>47200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1100</v>
       </c>
       <c r="K81" s="3">
         <v>1100</v>
       </c>
       <c r="L81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2858,14 +3057,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3050,14 +3267,17 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3096,14 +3317,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3192,14 +3422,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3366,14 +3612,17 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3430,10 +3682,13 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,34 +732,37 @@
         <v>5500</v>
       </c>
       <c r="E8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F8" s="3">
         <v>5600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1200</v>
       </c>
       <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G18" s="3">
         <v>4200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3800</v>
       </c>
       <c r="H18" s="3">
         <v>3800</v>
       </c>
       <c r="I18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J18" s="3">
         <v>3700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3800</v>
       </c>
       <c r="K18" s="3">
         <v>3800</v>
       </c>
       <c r="L18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,43 +1109,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2400</v>
       </c>
       <c r="G20" s="3">
         <v>-2400</v>
       </c>
       <c r="H20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1143,11 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1400</v>
       </c>
       <c r="H23" s="3">
         <v>1400</v>
       </c>
       <c r="I23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,10 +1271,10 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1237,22 +1283,25 @@
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1100</v>
       </c>
       <c r="L26" s="3">
         <v>1100</v>
       </c>
       <c r="M26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1100</v>
       </c>
       <c r="L27" s="3">
         <v>1100</v>
       </c>
       <c r="M27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>2600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2400</v>
       </c>
       <c r="G32" s="3">
         <v>2400</v>
       </c>
       <c r="H32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1100</v>
       </c>
       <c r="L33" s="3">
         <v>1100</v>
       </c>
       <c r="M33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1100</v>
       </c>
       <c r="L35" s="3">
         <v>1100</v>
       </c>
       <c r="M35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,78 +1792,85 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6900</v>
+        <v>8100</v>
       </c>
       <c r="E41" s="3">
         <v>6900</v>
       </c>
       <c r="F41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E42" s="3">
         <v>27300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>20300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>15900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1925,23 +2030,23 @@
         <v>2000</v>
       </c>
       <c r="E47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
@@ -1951,43 +2056,49 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
         <v>13500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>12400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>576700</v>
+      </c>
+      <c r="E54" s="3">
         <v>513100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>492800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>484600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
         <v>457700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>434800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,8 +2430,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2375,13 +2518,13 @@
         <v>10000</v>
       </c>
       <c r="E61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F61" s="3">
         <v>5000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2399,10 +2542,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>524600</v>
+      </c>
+      <c r="E66" s="3">
         <v>461900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>442500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>435100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>410500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>388500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E72" s="3">
         <v>38000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>37300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>36300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>34300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E76" s="3">
         <v>51100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
         <v>47200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1100</v>
       </c>
       <c r="L81" s="3">
         <v>1100</v>
       </c>
       <c r="M81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3060,14 +3259,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3270,14 +3487,17 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3320,14 +3541,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3425,14 +3655,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3615,14 +3861,17 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3685,10 +3937,13 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="E8" s="3">
         <v>5500</v>
       </c>
       <c r="F8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G8" s="3">
         <v>5600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>1200</v>
       </c>
       <c r="K17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3800</v>
       </c>
       <c r="I18" s="3">
         <v>3800</v>
       </c>
       <c r="J18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3800</v>
       </c>
       <c r="L18" s="3">
         <v>3800</v>
       </c>
       <c r="M18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2400</v>
       </c>
       <c r="H20" s="3">
         <v>-2400</v>
       </c>
       <c r="I20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1183,11 +1220,14 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,60 +1264,66 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1400</v>
       </c>
       <c r="I23" s="3">
         <v>1400</v>
       </c>
       <c r="J23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1286,22 +1332,25 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1100</v>
       </c>
       <c r="M26" s="3">
         <v>1100</v>
       </c>
       <c r="N26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1100</v>
       </c>
       <c r="M27" s="3">
         <v>1100</v>
       </c>
       <c r="N27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2400</v>
       </c>
       <c r="H32" s="3">
         <v>2400</v>
       </c>
       <c r="I32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1100</v>
       </c>
       <c r="M33" s="3">
         <v>1100</v>
       </c>
       <c r="N33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1100</v>
       </c>
       <c r="M35" s="3">
         <v>1100</v>
       </c>
       <c r="N35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,84 +1879,91 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>6900</v>
       </c>
       <c r="F41" s="3">
         <v>6900</v>
       </c>
       <c r="G41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H41" s="3">
         <v>9100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E42" s="3">
         <v>59300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>27300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>15900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1983,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,35 +2123,38 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E47" s="3">
         <v>2000</v>
       </c>
       <c r="F47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="3">
         <v>1900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2068,37 +2176,40 @@
         <v>13600</v>
       </c>
       <c r="E48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F48" s="3">
         <v>13500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>12400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>586700</v>
+      </c>
+      <c r="E54" s="3">
         <v>576700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>513100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>492800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>484600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>457700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>434800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2368,35 +2499,38 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,8 +2608,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,25 +2649,28 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="E61" s="3">
         <v>10000</v>
       </c>
       <c r="F61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G61" s="3">
         <v>5000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2545,10 +2688,13 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>533700</v>
+      </c>
+      <c r="E66" s="3">
         <v>524600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>461900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>442500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>435100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>410500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>388500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E72" s="3">
         <v>38900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>37300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>36300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>34300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>33300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E76" s="3">
         <v>52200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>51100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>47200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1100</v>
       </c>
       <c r="M81" s="3">
         <v>1100</v>
       </c>
       <c r="N81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3262,14 +3461,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3490,14 +3707,17 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3544,14 +3765,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3658,14 +3888,17 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3864,14 +4110,17 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3940,10 +4192,13 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,117 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5500</v>
       </c>
       <c r="F8" s="3">
         <v>5500</v>
       </c>
       <c r="G8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H8" s="3">
         <v>5600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3800</v>
       </c>
       <c r="J18" s="3">
         <v>3800</v>
       </c>
       <c r="K18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L18" s="3">
         <v>3700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3800</v>
       </c>
       <c r="M18" s="3">
         <v>3800</v>
       </c>
       <c r="N18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O18" s="3">
         <v>3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1176,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2400</v>
       </c>
       <c r="I20" s="3">
         <v>-2400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,11 +1259,14 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,66 +1306,72 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1400</v>
       </c>
       <c r="J23" s="3">
         <v>1400</v>
       </c>
       <c r="K23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1335,22 +1380,25 @@
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1100</v>
       </c>
       <c r="N26" s="3">
         <v>1100</v>
       </c>
       <c r="O26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1100</v>
       </c>
       <c r="N27" s="3">
         <v>1100</v>
       </c>
       <c r="O27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2400</v>
       </c>
       <c r="I32" s="3">
         <v>2400</v>
       </c>
       <c r="J32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1100</v>
       </c>
       <c r="N33" s="3">
         <v>1100</v>
       </c>
       <c r="O33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1100</v>
       </c>
       <c r="N35" s="3">
         <v>1100</v>
       </c>
       <c r="O35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,90 +1965,97 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6900</v>
       </c>
       <c r="G41" s="3">
         <v>6900</v>
       </c>
       <c r="H41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>8600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E42" s="3">
         <v>72300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>59300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>20300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>15900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2139,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2085,8 +2183,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2126,38 +2227,41 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2000</v>
       </c>
       <c r="F47" s="3">
         <v>2000</v>
       </c>
       <c r="G47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H47" s="3">
         <v>1900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2167,49 +2271,55 @@
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="E48" s="3">
         <v>13600</v>
       </c>
       <c r="F48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G48" s="3">
         <v>13500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>12400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>597300</v>
+      </c>
+      <c r="E54" s="3">
         <v>586700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>576700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>513100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>492800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>484600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>457700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>434800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,13 +2617,14 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -2502,35 +2632,38 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2703,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2611,8 +2747,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2652,8 +2791,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2661,19 +2803,19 @@
         <v>4000</v>
       </c>
       <c r="E61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="F61" s="3">
         <v>10000</v>
       </c>
       <c r="G61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H61" s="3">
         <v>5000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2691,10 +2833,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>543500</v>
+      </c>
+      <c r="E66" s="3">
         <v>533700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>524600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>461900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>442500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>435100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>410500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>388500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E72" s="3">
         <v>39700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>37300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>36300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>34300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E76" s="3">
         <v>53000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>47200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1100</v>
       </c>
       <c r="N81" s="3">
         <v>1100</v>
       </c>
       <c r="O81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3464,14 +3662,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3888,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3710,14 +3926,17 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3768,14 +3988,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3891,14 +4120,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4113,14 +4358,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4408,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4195,10 +4446,13 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F8" s="3">
         <v>22400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,28 +1123,30 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>6600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>1500</v>
@@ -1101,66 +1155,78 @@
         <v>1200</v>
       </c>
       <c r="L17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F18" s="3">
         <v>15800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3700</v>
       </c>
       <c r="M18" s="3">
         <v>3800</v>
       </c>
       <c r="N18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2600</v>
       </c>
       <c r="M20" s="3">
         <v>-2300</v>
       </c>
       <c r="N20" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="O20" s="3">
         <v>-2300</v>
       </c>
       <c r="P20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,11 +1336,17 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,19 +1389,25 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>5800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1500</v>
       </c>
       <c r="G23" s="3">
         <v>1300</v>
@@ -1330,75 +1416,87 @@
         <v>1500</v>
       </c>
       <c r="I23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1000</v>
       </c>
       <c r="H26" s="3">
         <v>1200</v>
       </c>
       <c r="I26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>800</v>
       </c>
       <c r="M26" s="3">
         <v>1200</v>
       </c>
       <c r="N26" s="3">
+        <v>800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1000</v>
       </c>
       <c r="H27" s="3">
         <v>1200</v>
       </c>
       <c r="I27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>800</v>
       </c>
       <c r="M27" s="3">
         <v>1200</v>
       </c>
       <c r="N27" s="3">
+        <v>800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2600</v>
       </c>
       <c r="M32" s="3">
         <v>2300</v>
       </c>
       <c r="N32" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="O32" s="3">
         <v>2300</v>
       </c>
       <c r="P32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1000</v>
       </c>
       <c r="H33" s="3">
         <v>1200</v>
       </c>
       <c r="I33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>800</v>
       </c>
       <c r="M33" s="3">
         <v>1200</v>
       </c>
       <c r="N33" s="3">
+        <v>800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1000</v>
       </c>
       <c r="H35" s="3">
         <v>1200</v>
       </c>
       <c r="I35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>800</v>
       </c>
       <c r="M35" s="3">
         <v>1200</v>
       </c>
       <c r="N35" s="3">
+        <v>800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91200</v>
+        <v>120800</v>
       </c>
       <c r="E42" s="3">
+        <v>131400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>91400</v>
+      </c>
+      <c r="G42" s="3">
         <v>72300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>59300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>27300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>20300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>22800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>15900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2186,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2230,96 +2434,114 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>2300</v>
       </c>
       <c r="E47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>13500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>12400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2494,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>597300</v>
+        <v>645300</v>
       </c>
       <c r="E54" s="3">
+        <v>641100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>597800</v>
+      </c>
+      <c r="G54" s="3">
         <v>586700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>576700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>513100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>492800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>484600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>457700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>434800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2750,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2794,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2806,23 +3092,23 @@
         <v>4000</v>
       </c>
       <c r="F61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H61" s="3">
         <v>10000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>10000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2836,10 +3122,16 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>543500</v>
+        <v>588500</v>
       </c>
       <c r="E66" s="3">
+        <v>585600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>544000</v>
+      </c>
+      <c r="G66" s="3">
         <v>533700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>524600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>461900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>442500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>435100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>410500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>388500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F72" s="3">
         <v>40700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>39700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>38900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>38000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>37300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>36300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>34300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>33300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>55500</v>
+      </c>
+      <c r="F76" s="3">
         <v>53800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>53000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>51100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>50300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>49500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>47200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>46300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1000</v>
       </c>
       <c r="H81" s="3">
         <v>1200</v>
       </c>
       <c r="I81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>800</v>
       </c>
       <c r="M81" s="3">
         <v>1200</v>
       </c>
       <c r="N81" s="3">
+        <v>800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3665,14 +4063,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3929,14 +4363,20 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3991,14 +4433,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4123,14 +4583,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4361,14 +4853,20 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4449,10 +4953,16 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E8" s="3">
         <v>5600</v>
       </c>
       <c r="F8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G8" s="3">
         <v>22400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5500</v>
       </c>
       <c r="I8" s="3">
         <v>5500</v>
       </c>
       <c r="J8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1200</v>
       </c>
       <c r="O17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4900</v>
       </c>
       <c r="E18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3800</v>
       </c>
       <c r="M18" s="3">
         <v>3800</v>
       </c>
       <c r="N18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O18" s="3">
         <v>3700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3800</v>
       </c>
       <c r="P18" s="3">
         <v>3800</v>
       </c>
       <c r="Q18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2400</v>
       </c>
       <c r="L20" s="3">
         <v>-2400</v>
       </c>
       <c r="M20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,11 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1400</v>
       </c>
       <c r="M23" s="3">
         <v>1400</v>
       </c>
       <c r="N23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,25 +1500,25 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
@@ -1481,22 +1527,25 @@
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1100</v>
       </c>
       <c r="Q26" s="3">
         <v>1100</v>
       </c>
       <c r="R26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1100</v>
       </c>
       <c r="Q27" s="3">
         <v>1100</v>
       </c>
       <c r="R27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2400</v>
       </c>
       <c r="L32" s="3">
         <v>2400</v>
       </c>
       <c r="M32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1100</v>
       </c>
       <c r="Q33" s="3">
         <v>1100</v>
       </c>
       <c r="R33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1100</v>
       </c>
       <c r="Q35" s="3">
         <v>1100</v>
       </c>
       <c r="R35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>6900</v>
       </c>
       <c r="J41" s="3">
         <v>6900</v>
       </c>
       <c r="K41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>8600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E42" s="3">
         <v>120800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>131400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>91400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>59300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>27300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>15900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,47 +2542,50 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2100</v>
       </c>
       <c r="G47" s="3">
         <v>2100</v>
       </c>
       <c r="H47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I47" s="3">
         <v>2000</v>
       </c>
       <c r="J47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13600</v>
       </c>
       <c r="H48" s="3">
         <v>13600</v>
       </c>
       <c r="I48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J48" s="3">
         <v>13500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>12400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>655100</v>
+      </c>
+      <c r="E54" s="3">
         <v>645300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>641100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>597800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>586700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>576700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>513100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>492800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>484600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>457700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>434800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2891,47 +3022,50 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,13 +3220,16 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="3">
         <v>4000</v>
@@ -3098,19 +3241,19 @@
         <v>4000</v>
       </c>
       <c r="H61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="I61" s="3">
         <v>10000</v>
       </c>
       <c r="J61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K61" s="3">
         <v>5000</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3128,10 +3271,13 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>596600</v>
+      </c>
+      <c r="E66" s="3">
         <v>588500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>585600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>544000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>533700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>524600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>461900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>442500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>435100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>410500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>388500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E72" s="3">
         <v>43600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>40700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>37300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>34300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E76" s="3">
         <v>56900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>51100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>47200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1100</v>
       </c>
       <c r="Q81" s="3">
         <v>1100</v>
       </c>
       <c r="R81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4069,14 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4369,14 +4586,17 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4589,14 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4859,14 +5105,17 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4959,10 +5211,13 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,144 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>5700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5600</v>
       </c>
       <c r="F8" s="3">
         <v>5600</v>
       </c>
       <c r="G8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H8" s="3">
         <v>22400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5500</v>
       </c>
       <c r="J8" s="3">
         <v>5500</v>
       </c>
       <c r="K8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E18" s="3">
         <v>4900</v>
       </c>
       <c r="F18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G18" s="3">
         <v>4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3800</v>
       </c>
       <c r="N18" s="3">
         <v>3800</v>
       </c>
       <c r="O18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P18" s="3">
         <v>3700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3800</v>
       </c>
       <c r="Q18" s="3">
         <v>3800</v>
       </c>
       <c r="R18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S18" s="3">
         <v>3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1311,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2400</v>
       </c>
       <c r="M20" s="3">
         <v>-2400</v>
       </c>
       <c r="N20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1382,11 +1418,14 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,90 +1477,96 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1400</v>
       </c>
       <c r="N23" s="3">
         <v>1400</v>
       </c>
       <c r="O23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>400</v>
       </c>
       <c r="F24" s="3">
+        <v>400</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
@@ -1530,22 +1575,25 @@
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1100</v>
       </c>
       <c r="R26" s="3">
         <v>1100</v>
       </c>
       <c r="S26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1100</v>
       </c>
       <c r="R27" s="3">
         <v>1100</v>
       </c>
       <c r="S27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2400</v>
       </c>
       <c r="M32" s="3">
         <v>2400</v>
       </c>
       <c r="N32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1100</v>
       </c>
       <c r="R33" s="3">
         <v>1100</v>
       </c>
       <c r="S33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1100</v>
       </c>
       <c r="R35" s="3">
         <v>1100</v>
       </c>
       <c r="S35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2312,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6900</v>
       </c>
       <c r="K41" s="3">
         <v>6900</v>
       </c>
       <c r="L41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M41" s="3">
         <v>9100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>8600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E42" s="3">
         <v>133600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>120800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>131400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>91400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>72300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>59300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>27300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>15900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2534,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2590,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2646,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,41 +2658,41 @@
         <v>2400</v>
       </c>
       <c r="E47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F47" s="3">
         <v>2300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2100</v>
       </c>
       <c r="H47" s="3">
         <v>2100</v>
       </c>
       <c r="I47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J47" s="3">
         <v>2000</v>
       </c>
       <c r="K47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2598,8 +2702,11 @@
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,52 +2714,55 @@
         <v>14400</v>
       </c>
       <c r="E48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F48" s="3">
         <v>13900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>13600</v>
       </c>
       <c r="I48" s="3">
         <v>13600</v>
       </c>
       <c r="J48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K48" s="3">
         <v>13500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>12400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>663800</v>
+      </c>
+      <c r="E54" s="3">
         <v>655100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>645300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>641100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>597800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>586700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>576700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>513100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>492800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>484600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>457700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>434800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3140,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>200</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -3025,47 +3155,50 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3250,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3306,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3362,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3374,7 @@
         <v>3000</v>
       </c>
       <c r="E61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F61" s="3">
         <v>4000</v>
@@ -3244,19 +3386,19 @@
         <v>4000</v>
       </c>
       <c r="I61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="J61" s="3">
         <v>10000</v>
       </c>
       <c r="K61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L61" s="3">
         <v>5000</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3274,10 +3416,13 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>604600</v>
+      </c>
+      <c r="E66" s="3">
         <v>596600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>588500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>585600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>544000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>533700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>524600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>461900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>442500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>435100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>410500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>388500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E72" s="3">
         <v>45100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>42400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>40700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>34300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E76" s="3">
         <v>58600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>51100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>47200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1100</v>
       </c>
       <c r="R81" s="3">
         <v>1100</v>
       </c>
       <c r="S81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4271,14 +4469,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4755,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4589,14 +4805,17 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4663,14 +4883,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4822,14 +5051,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5303,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5108,14 +5353,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5415,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5214,10 +5465,13 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,55 +758,58 @@
         <v>5500</v>
       </c>
       <c r="E8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F8" s="3">
         <v>5700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5600</v>
       </c>
       <c r="G8" s="3">
         <v>5600</v>
       </c>
       <c r="H8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I8" s="3">
         <v>22400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5500</v>
       </c>
       <c r="K8" s="3">
         <v>5500</v>
       </c>
       <c r="L8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1187,55 +1214,58 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,55 +1273,58 @@
         <v>4800</v>
       </c>
       <c r="E18" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F18" s="3">
         <v>4900</v>
       </c>
       <c r="G18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H18" s="3">
         <v>4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3800</v>
       </c>
       <c r="O18" s="3">
         <v>3800</v>
       </c>
       <c r="P18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3800</v>
       </c>
       <c r="R18" s="3">
         <v>3800</v>
       </c>
       <c r="S18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T18" s="3">
         <v>3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2400</v>
       </c>
       <c r="N20" s="3">
         <v>-2400</v>
       </c>
       <c r="O20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1421,11 +1458,14 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,96 +1520,102 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1400</v>
       </c>
       <c r="O23" s="3">
         <v>1400</v>
       </c>
       <c r="P23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>400</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
+        <v>400</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
@@ -1578,22 +1624,25 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1657,55 +1709,58 @@
         <v>1500</v>
       </c>
       <c r="E26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1100</v>
       </c>
       <c r="S26" s="3">
         <v>1100</v>
       </c>
       <c r="T26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1713,55 +1768,58 @@
         <v>1500</v>
       </c>
       <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1100</v>
       </c>
       <c r="S27" s="3">
         <v>1100</v>
       </c>
       <c r="T27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,64 +2051,70 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2400</v>
       </c>
       <c r="N32" s="3">
         <v>2400</v>
       </c>
       <c r="O32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2049,55 +2122,58 @@
         <v>1500</v>
       </c>
       <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1100</v>
       </c>
       <c r="S33" s="3">
         <v>1100</v>
       </c>
       <c r="T33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2161,116 +2240,122 @@
         <v>1500</v>
       </c>
       <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1100</v>
       </c>
       <c r="S35" s="3">
         <v>1100</v>
       </c>
       <c r="T35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E41" s="3">
         <v>7000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>6900</v>
       </c>
       <c r="L41" s="3">
         <v>6900</v>
       </c>
       <c r="M41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>8600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E42" s="3">
         <v>136600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>133600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>120800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>131400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>91400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>72300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>59300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>15900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2593,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,53 +2751,56 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E47" s="3">
         <v>2400</v>
       </c>
       <c r="F47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G47" s="3">
         <v>2300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2100</v>
       </c>
       <c r="I47" s="3">
         <v>2100</v>
       </c>
       <c r="J47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K47" s="3">
         <v>2000</v>
       </c>
       <c r="L47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2705,64 +2810,70 @@
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="E48" s="3">
         <v>14400</v>
       </c>
       <c r="F48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G48" s="3">
         <v>13900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>13600</v>
       </c>
       <c r="J48" s="3">
         <v>13600</v>
       </c>
       <c r="K48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L48" s="3">
         <v>13500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>12400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700500</v>
+      </c>
+      <c r="E54" s="3">
         <v>663800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>655100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>645300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>641100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>597800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>586700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>576700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>513100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>492800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>484600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>457700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>434800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3309,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3377,7 +3520,7 @@
         <v>3000</v>
       </c>
       <c r="F61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G61" s="3">
         <v>4000</v>
@@ -3389,19 +3532,19 @@
         <v>4000</v>
       </c>
       <c r="J61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="K61" s="3">
         <v>10000</v>
       </c>
       <c r="L61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M61" s="3">
         <v>5000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3419,10 +3562,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>641100</v>
+      </c>
+      <c r="E66" s="3">
         <v>604600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>596600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>588500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>585600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>544000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>533700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>524600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>461900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>442500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>435100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>410500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>388500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E72" s="3">
         <v>41300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>45100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>42400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>40700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>39700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>34300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E76" s="3">
         <v>59100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>47200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4353,55 +4548,58 @@
         <v>1500</v>
       </c>
       <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1100</v>
       </c>
       <c r="S81" s="3">
         <v>1100</v>
       </c>
       <c r="T81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4472,14 +4671,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4808,14 +5025,17 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4886,14 +5107,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5054,14 +5284,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5356,14 +5602,17 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5468,10 +5720,13 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="E8" s="3">
         <v>5500</v>
       </c>
       <c r="F8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G8" s="3">
         <v>5700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5600</v>
       </c>
       <c r="H8" s="3">
         <v>5600</v>
       </c>
       <c r="I8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J8" s="3">
         <v>22400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5500</v>
       </c>
       <c r="L8" s="3">
         <v>5500</v>
       </c>
       <c r="M8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1217,114 +1244,120 @@
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1200</v>
       </c>
       <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="E18" s="3">
         <v>4800</v>
       </c>
       <c r="F18" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G18" s="3">
         <v>4900</v>
       </c>
       <c r="H18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I18" s="3">
         <v>4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3800</v>
       </c>
       <c r="P18" s="3">
         <v>3800</v>
       </c>
       <c r="Q18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R18" s="3">
         <v>3700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3800</v>
       </c>
       <c r="S18" s="3">
         <v>3800</v>
       </c>
       <c r="T18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U18" s="3">
         <v>3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,58 +1389,61 @@
         <v>-2900</v>
       </c>
       <c r="E20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2400</v>
       </c>
       <c r="O20" s="3">
         <v>-2400</v>
       </c>
       <c r="P20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1461,11 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,102 +1563,108 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1400</v>
       </c>
       <c r="P23" s="3">
         <v>1400</v>
       </c>
       <c r="Q23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>400</v>
       </c>
       <c r="G24" s="3">
         <v>400</v>
       </c>
       <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
@@ -1627,22 +1673,25 @@
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
         <v>1500</v>
       </c>
       <c r="F26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1100</v>
       </c>
       <c r="T26" s="3">
         <v>1100</v>
       </c>
       <c r="U26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
         <v>1500</v>
       </c>
       <c r="F27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1100</v>
       </c>
       <c r="T27" s="3">
         <v>1100</v>
       </c>
       <c r="U27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,117 +2133,123 @@
         <v>2900</v>
       </c>
       <c r="E32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2400</v>
       </c>
       <c r="O32" s="3">
         <v>2400</v>
       </c>
       <c r="P32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
         <v>1500</v>
       </c>
       <c r="F33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1100</v>
       </c>
       <c r="T33" s="3">
         <v>1100</v>
       </c>
       <c r="U33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
         <v>1500</v>
       </c>
       <c r="F35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1100</v>
       </c>
       <c r="T35" s="3">
         <v>1100</v>
       </c>
       <c r="U35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>6900</v>
       </c>
       <c r="M41" s="3">
         <v>6900</v>
       </c>
       <c r="N41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>8600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E42" s="3">
         <v>163500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>136600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>133600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>120800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>131400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>91400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>72300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>59300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>15900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,56 +2856,59 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2400</v>
       </c>
       <c r="F47" s="3">
         <v>2400</v>
       </c>
       <c r="G47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H47" s="3">
         <v>2300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2100</v>
       </c>
       <c r="J47" s="3">
         <v>2100</v>
       </c>
       <c r="K47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L47" s="3">
         <v>2000</v>
       </c>
       <c r="M47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2813,67 +2918,73 @@
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
         <v>14200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14400</v>
       </c>
       <c r="F48" s="3">
         <v>14400</v>
       </c>
       <c r="G48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H48" s="3">
         <v>13900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>13600</v>
       </c>
       <c r="K48" s="3">
         <v>13600</v>
       </c>
       <c r="L48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="M48" s="3">
         <v>13500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>12400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>717400</v>
+      </c>
+      <c r="E54" s="3">
         <v>700500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>663800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>655100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>645300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>641100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>597800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>586700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>576700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>513100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>492800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>484600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>457700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>434800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,13 +3648,16 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>3000</v>
@@ -3523,7 +3666,7 @@
         <v>3000</v>
       </c>
       <c r="G61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H61" s="3">
         <v>4000</v>
@@ -3535,19 +3678,19 @@
         <v>4000</v>
       </c>
       <c r="K61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L61" s="3">
         <v>10000</v>
       </c>
       <c r="M61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N61" s="3">
         <v>5000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3565,10 +3708,13 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>659900</v>
+      </c>
+      <c r="E66" s="3">
         <v>641100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>604600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>596600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>588500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>585600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>544000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>533700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>524600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>461900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>442500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>435100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>410500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>388500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E72" s="3">
         <v>42500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>41300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>40700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>39700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>34300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E76" s="3">
         <v>59500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>59100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>47200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
         <v>1500</v>
       </c>
       <c r="F81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1100</v>
       </c>
       <c r="T81" s="3">
         <v>1100</v>
       </c>
       <c r="U81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4674,14 +4873,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5028,14 +5245,17 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5110,14 +5331,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5287,14 +5517,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5605,14 +5851,17 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5723,10 +5975,13 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5500</v>
       </c>
       <c r="F8" s="3">
         <v>5500</v>
       </c>
       <c r="G8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H8" s="3">
         <v>5700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5600</v>
       </c>
       <c r="I8" s="3">
         <v>5600</v>
       </c>
       <c r="J8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K8" s="3">
         <v>22400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5500</v>
       </c>
       <c r="M8" s="3">
         <v>5500</v>
       </c>
       <c r="N8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,13 +1258,14 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
@@ -1247,117 +1274,123 @@
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1200</v>
       </c>
       <c r="S17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>5100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4800</v>
       </c>
       <c r="F18" s="3">
         <v>4800</v>
       </c>
       <c r="G18" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="H18" s="3">
         <v>4900</v>
       </c>
       <c r="I18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J18" s="3">
         <v>4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3800</v>
       </c>
       <c r="Q18" s="3">
         <v>3800</v>
       </c>
       <c r="R18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S18" s="3">
         <v>3700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3800</v>
       </c>
       <c r="T18" s="3">
         <v>3800</v>
       </c>
       <c r="U18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V18" s="3">
         <v>3600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
         <v>-2900</v>
       </c>
       <c r="F20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2400</v>
       </c>
       <c r="P20" s="3">
         <v>-2400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1501,11 +1538,14 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1400</v>
       </c>
       <c r="Q23" s="3">
         <v>1400</v>
       </c>
       <c r="R23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,37 +1683,37 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -1676,22 +1722,25 @@
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1500</v>
       </c>
       <c r="F26" s="3">
         <v>1500</v>
       </c>
       <c r="G26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1100</v>
       </c>
       <c r="U26" s="3">
         <v>1100</v>
       </c>
       <c r="V26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1500</v>
       </c>
       <c r="F27" s="3">
         <v>1500</v>
       </c>
       <c r="G27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1100</v>
       </c>
       <c r="U27" s="3">
         <v>1100</v>
       </c>
       <c r="V27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
         <v>2900</v>
       </c>
       <c r="F32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2400</v>
       </c>
       <c r="P32" s="3">
         <v>2400</v>
       </c>
       <c r="Q32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1500</v>
       </c>
       <c r="F33" s="3">
         <v>1500</v>
       </c>
       <c r="G33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1100</v>
       </c>
       <c r="U33" s="3">
         <v>1100</v>
       </c>
       <c r="V33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1500</v>
       </c>
       <c r="F35" s="3">
         <v>1500</v>
       </c>
       <c r="G35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1100</v>
       </c>
       <c r="U35" s="3">
         <v>1100</v>
       </c>
       <c r="V35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>6900</v>
       </c>
       <c r="N41" s="3">
         <v>6900</v>
       </c>
       <c r="O41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>8600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E42" s="3">
         <v>143900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>163500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>136600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>133600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>120800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>131400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>91400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>59300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>15900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,50 +2973,50 @@
         <v>2700</v>
       </c>
       <c r="E47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F47" s="3">
         <v>2600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2400</v>
       </c>
       <c r="G47" s="3">
         <v>2400</v>
       </c>
       <c r="H47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I47" s="3">
         <v>2300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2100</v>
       </c>
       <c r="K47" s="3">
         <v>2100</v>
       </c>
       <c r="L47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M47" s="3">
         <v>2000</v>
       </c>
       <c r="N47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O47" s="3">
         <v>1900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>1800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,61 +3038,64 @@
         <v>14100</v>
       </c>
       <c r="E48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F48" s="3">
         <v>14200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>14400</v>
       </c>
       <c r="G48" s="3">
         <v>14400</v>
       </c>
       <c r="H48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I48" s="3">
         <v>13900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>13600</v>
       </c>
       <c r="L48" s="3">
         <v>13600</v>
       </c>
       <c r="M48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="N48" s="3">
         <v>13500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>12400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E54" s="3">
         <v>717400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>663800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>655100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>645300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>641100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>597800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>586700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>576700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>513100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>492800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>484600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>457700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>434800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3414,59 +3545,62 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>3000</v>
@@ -3669,7 +3812,7 @@
         <v>3000</v>
       </c>
       <c r="H61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="I61" s="3">
         <v>4000</v>
@@ -3681,19 +3824,19 @@
         <v>4000</v>
       </c>
       <c r="L61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M61" s="3">
         <v>10000</v>
       </c>
       <c r="N61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O61" s="3">
         <v>5000</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3711,10 +3854,13 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E66" s="3">
         <v>659900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>641100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>604600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>596600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>588500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>585600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>544000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>533700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>524600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>461900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>442500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>435100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>410500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>388500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E72" s="3">
         <v>43900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>41300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>43600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>40700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>34300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E76" s="3">
         <v>57600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>59500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>59100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>47200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>46300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1500</v>
       </c>
       <c r="F81" s="3">
         <v>1500</v>
       </c>
       <c r="G81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1100</v>
       </c>
       <c r="U81" s="3">
         <v>1100</v>
       </c>
       <c r="V81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4876,14 +5075,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5248,14 +5465,17 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5334,14 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5520,14 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5854,14 +6100,17 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5978,10 +6230,13 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,171 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5500</v>
       </c>
       <c r="G8" s="3">
         <v>5500</v>
       </c>
       <c r="H8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I8" s="3">
         <v>5700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5600</v>
       </c>
       <c r="J8" s="3">
         <v>5600</v>
       </c>
       <c r="K8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L8" s="3">
         <v>22400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>5500</v>
       </c>
       <c r="N8" s="3">
         <v>5500</v>
       </c>
       <c r="O8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,16 +1284,17 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
@@ -1277,120 +1303,126 @@
         <v>700</v>
       </c>
       <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
       </c>
       <c r="S17" s="3">
         <v>1200</v>
       </c>
       <c r="T17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4800</v>
       </c>
       <c r="G18" s="3">
         <v>4800</v>
       </c>
       <c r="H18" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I18" s="3">
         <v>4900</v>
       </c>
       <c r="J18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K18" s="3">
         <v>4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3800</v>
       </c>
       <c r="R18" s="3">
         <v>3800</v>
       </c>
       <c r="S18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T18" s="3">
         <v>3700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>3800</v>
       </c>
       <c r="U18" s="3">
         <v>3800</v>
       </c>
       <c r="V18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W18" s="3">
         <v>3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,73 +1446,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2900</v>
       </c>
       <c r="F20" s="3">
         <v>-2900</v>
       </c>
       <c r="G20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2400</v>
       </c>
       <c r="Q20" s="3">
         <v>-2400</v>
       </c>
       <c r="R20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1541,11 +1577,14 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1648,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1400</v>
       </c>
       <c r="R23" s="3">
         <v>1400</v>
       </c>
       <c r="S23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,37 +1731,37 @@
         <v>500</v>
       </c>
       <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
@@ -1725,22 +1770,25 @@
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1500</v>
       </c>
       <c r="G26" s="3">
         <v>1500</v>
       </c>
       <c r="H26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1100</v>
       </c>
       <c r="V26" s="3">
         <v>1100</v>
       </c>
       <c r="W26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1500</v>
       </c>
       <c r="G27" s="3">
         <v>1500</v>
       </c>
       <c r="H27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1100</v>
       </c>
       <c r="V27" s="3">
         <v>1100</v>
       </c>
       <c r="W27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2900</v>
       </c>
       <c r="F32" s="3">
         <v>2900</v>
       </c>
       <c r="G32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2400</v>
       </c>
       <c r="Q32" s="3">
         <v>2400</v>
       </c>
       <c r="R32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1500</v>
       </c>
       <c r="G33" s="3">
         <v>1500</v>
       </c>
       <c r="H33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1100</v>
       </c>
       <c r="V33" s="3">
         <v>1100</v>
       </c>
       <c r="W33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1500</v>
       </c>
       <c r="G35" s="3">
         <v>1500</v>
       </c>
       <c r="H35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>1100</v>
       </c>
       <c r="V35" s="3">
         <v>1100</v>
       </c>
       <c r="W35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2659,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>6900</v>
       </c>
       <c r="O41" s="3">
         <v>6900</v>
       </c>
       <c r="P41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>8600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E42" s="3">
         <v>113000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>143900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>163500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>136600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>133600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>120800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>131400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>91400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>59300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>15900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2861,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2929,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2997,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,62 +3065,65 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>2700</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
         <v>2700</v>
       </c>
       <c r="F47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G47" s="3">
         <v>2600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2400</v>
       </c>
       <c r="H47" s="3">
         <v>2400</v>
       </c>
       <c r="I47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J47" s="3">
         <v>2300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2100</v>
       </c>
       <c r="L47" s="3">
         <v>2100</v>
       </c>
       <c r="M47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="N47" s="3">
         <v>2000</v>
       </c>
       <c r="O47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P47" s="3">
         <v>1900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3029,8 +3133,11 @@
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,61 +3148,64 @@
         <v>14100</v>
       </c>
       <c r="F48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G48" s="3">
         <v>14200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>14400</v>
       </c>
       <c r="H48" s="3">
         <v>14400</v>
       </c>
       <c r="I48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J48" s="3">
         <v>13900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>13600</v>
       </c>
       <c r="M48" s="3">
         <v>13600</v>
       </c>
       <c r="N48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="O48" s="3">
         <v>13500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>12400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3473,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>713700</v>
+      </c>
+      <c r="E54" s="3">
         <v>707000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>717400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>663800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>655100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>645300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>641100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>597800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>586700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>576700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>513100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>492800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>484600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>457700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>434800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3663,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>300</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -3548,59 +3678,62 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3797,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +3865,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +3933,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>3000</v>
@@ -3815,7 +3957,7 @@
         <v>3000</v>
       </c>
       <c r="I61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J61" s="3">
         <v>4000</v>
@@ -3827,19 +3969,19 @@
         <v>4000</v>
       </c>
       <c r="M61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N61" s="3">
         <v>10000</v>
       </c>
       <c r="O61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P61" s="3">
         <v>5000</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3857,10 +3999,13 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4069,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>647300</v>
+      </c>
+      <c r="E66" s="3">
         <v>649000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>659900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>641100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>604600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>596600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>588500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>585600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>544000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>533700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>524600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>461900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>442500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>435100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>410500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>388500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,13 +4503,16 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E72" s="3">
         <v>45800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>42500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>41300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>43600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>40700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>37300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>34300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E76" s="3">
         <v>57900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>59500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>59100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>47200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>46300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1500</v>
       </c>
       <c r="G81" s="3">
         <v>1500</v>
       </c>
       <c r="H81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>1100</v>
       </c>
       <c r="V81" s="3">
         <v>1100</v>
       </c>
       <c r="W81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5078,14 +5276,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5622,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5468,14 +5684,17 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5558,14 +5778,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5920,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5753,14 +5982,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6286,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6103,14 +6348,17 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6422,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6233,10 +6484,13 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,178 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E8" s="3">
         <v>7500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5500</v>
       </c>
       <c r="H8" s="3">
         <v>5500</v>
       </c>
       <c r="I8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J8" s="3">
         <v>5700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5600</v>
       </c>
       <c r="K8" s="3">
         <v>5600</v>
       </c>
       <c r="L8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="M8" s="3">
         <v>22400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>5500</v>
       </c>
       <c r="O8" s="3">
         <v>5500</v>
       </c>
       <c r="P8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -896,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,19 +1311,20 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>700</v>
       </c>
       <c r="G17" s="3">
         <v>700</v>
@@ -1306,123 +1333,129 @@
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1200</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4800</v>
       </c>
       <c r="H18" s="3">
         <v>4800</v>
       </c>
       <c r="I18" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="J18" s="3">
         <v>4900</v>
       </c>
       <c r="K18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L18" s="3">
         <v>4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3800</v>
       </c>
       <c r="S18" s="3">
         <v>3800</v>
       </c>
       <c r="T18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U18" s="3">
         <v>3700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3800</v>
       </c>
       <c r="V18" s="3">
         <v>3800</v>
       </c>
       <c r="W18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X18" s="3">
         <v>3600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2900</v>
       </c>
       <c r="G20" s="3">
         <v>-2900</v>
       </c>
       <c r="H20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2400</v>
       </c>
       <c r="R20" s="3">
         <v>-2400</v>
       </c>
       <c r="S20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,11 +1617,14 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,81 +1691,87 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1400</v>
       </c>
       <c r="S23" s="3">
         <v>1400</v>
       </c>
       <c r="T23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>500</v>
@@ -1734,37 +1780,37 @@
         <v>500</v>
       </c>
       <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -1773,22 +1819,25 @@
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>300</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>300</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,76 +1904,82 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1500</v>
       </c>
       <c r="H26" s="3">
         <v>1500</v>
       </c>
       <c r="I26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>1100</v>
       </c>
       <c r="W26" s="3">
         <v>1100</v>
       </c>
       <c r="X26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1932,67 +1987,70 @@
         <v>2200</v>
       </c>
       <c r="E27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1500</v>
       </c>
       <c r="H27" s="3">
         <v>1500</v>
       </c>
       <c r="I27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1100</v>
       </c>
       <c r="W27" s="3">
         <v>1100</v>
       </c>
       <c r="X27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,76 +2330,82 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2900</v>
       </c>
       <c r="G32" s="3">
         <v>2900</v>
       </c>
       <c r="H32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2400</v>
       </c>
       <c r="R32" s="3">
         <v>2400</v>
       </c>
       <c r="S32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2340,67 +2413,70 @@
         <v>2200</v>
       </c>
       <c r="E33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1500</v>
       </c>
       <c r="H33" s="3">
         <v>1500</v>
       </c>
       <c r="I33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1100</v>
       </c>
       <c r="W33" s="3">
         <v>1100</v>
       </c>
       <c r="X33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2476,140 +2555,146 @@
         <v>2200</v>
       </c>
       <c r="E35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1500</v>
       </c>
       <c r="H35" s="3">
         <v>1500</v>
       </c>
       <c r="I35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>1100</v>
       </c>
       <c r="W35" s="3">
         <v>1100</v>
       </c>
       <c r="X35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>6900</v>
       </c>
       <c r="P41" s="3">
         <v>6900</v>
       </c>
       <c r="Q41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>8600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E42" s="3">
         <v>92200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>113000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>143900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>163500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>136600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>133600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>120800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>131400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>91400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>15900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3000,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3068,65 +3170,68 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2700</v>
+      <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
         <v>2700</v>
       </c>
       <c r="G47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H47" s="3">
         <v>2600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2400</v>
       </c>
       <c r="I47" s="3">
         <v>2400</v>
       </c>
       <c r="J47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2100</v>
       </c>
       <c r="M47" s="3">
         <v>2100</v>
       </c>
       <c r="N47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="O47" s="3">
         <v>2000</v>
       </c>
       <c r="P47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>1800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3136,13 +3241,16 @@
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="E48" s="3">
         <v>14100</v>
@@ -3151,61 +3259,64 @@
         <v>14100</v>
       </c>
       <c r="G48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="H48" s="3">
         <v>14200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>14400</v>
       </c>
       <c r="I48" s="3">
         <v>14400</v>
       </c>
       <c r="J48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K48" s="3">
         <v>13900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>13600</v>
       </c>
       <c r="N48" s="3">
         <v>13600</v>
       </c>
       <c r="O48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="P48" s="3">
         <v>13500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>12400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>714800</v>
+      </c>
+      <c r="E54" s="3">
         <v>713700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>707000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>717400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>663800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>655100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>645300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>641100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>597800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>586700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>576700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>513100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>492800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>484600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>457700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>434800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3868,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3936,8 +4076,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3951,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>3000</v>
@@ -3960,7 +4103,7 @@
         <v>3000</v>
       </c>
       <c r="J61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="K61" s="3">
         <v>4000</v>
@@ -3972,19 +4115,19 @@
         <v>4000</v>
       </c>
       <c r="N61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O61" s="3">
         <v>10000</v>
       </c>
       <c r="P61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q61" s="3">
         <v>5000</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4002,10 +4145,13 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>646200</v>
+      </c>
+      <c r="E66" s="3">
         <v>647300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>649000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>659900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>641100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>604600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>596600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>588500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>585600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>544000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>533700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>524600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>461900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>442500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>435100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>410500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>388500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4515,7 +4683,7 @@
         <v>200</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E72" s="3">
         <v>47700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>45800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>42500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>41300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>40700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>37300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>34300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E76" s="3">
         <v>66100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>59500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>59100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>47200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>46300</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5132,67 +5327,70 @@
         <v>2200</v>
       </c>
       <c r="E81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1500</v>
       </c>
       <c r="H81" s="3">
         <v>1500</v>
       </c>
       <c r="I81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>1100</v>
       </c>
       <c r="W81" s="3">
         <v>1100</v>
       </c>
       <c r="X81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5279,14 +5478,17 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5687,14 +5904,17 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5781,14 +6002,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5985,14 +6215,17 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6351,14 +6597,17 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6487,10 +6739,13 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>6200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BORT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>BORT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E8" s="3">
         <v>7800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5500</v>
       </c>
       <c r="I8" s="3">
         <v>5500</v>
       </c>
       <c r="J8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5600</v>
       </c>
       <c r="L8" s="3">
         <v>5600</v>
       </c>
       <c r="M8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N8" s="3">
         <v>22400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5500</v>
       </c>
       <c r="P8" s="3">
         <v>5500</v>
       </c>
       <c r="Q8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,22 +1338,23 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
@@ -1336,126 +1363,132 @@
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1200</v>
       </c>
       <c r="U17" s="3">
         <v>1200</v>
       </c>
       <c r="V17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E18" s="3">
         <v>6100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>4800</v>
       </c>
       <c r="I18" s="3">
         <v>4800</v>
       </c>
       <c r="J18" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K18" s="3">
         <v>4900</v>
       </c>
       <c r="L18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M18" s="3">
         <v>4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3800</v>
       </c>
       <c r="T18" s="3">
         <v>3800</v>
       </c>
       <c r="U18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V18" s="3">
         <v>3700</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3800</v>
       </c>
       <c r="W18" s="3">
         <v>3800</v>
       </c>
       <c r="X18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2900</v>
       </c>
       <c r="H20" s="3">
         <v>-2900</v>
       </c>
       <c r="I20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2400</v>
       </c>
       <c r="S20" s="3">
         <v>-2400</v>
       </c>
       <c r="T20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1620,11 +1657,14 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,87 +1734,93 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1400</v>
       </c>
       <c r="T23" s="3">
         <v>1400</v>
       </c>
       <c r="U23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>500</v>
       </c>
       <c r="F24" s="3">
         <v>500</v>
@@ -1783,37 +1829,37 @@
         <v>500</v>
       </c>
       <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>400</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
       </c>
       <c r="L24" s="3">
+        <v>400</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
@@ -1822,22 +1868,25 @@
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>300</v>
       </c>
       <c r="W24" s="3">
         <v>300</v>
       </c>
       <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1500</v>
       </c>
       <c r="I26" s="3">
         <v>1500</v>
       </c>
       <c r="J26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1100</v>
       </c>
       <c r="X26" s="3">
         <v>1100</v>
       </c>
       <c r="Y26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="3">
         <v>2200</v>
       </c>
       <c r="F27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1500</v>
       </c>
       <c r="I27" s="3">
         <v>1500</v>
       </c>
       <c r="J27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1100</v>
       </c>
       <c r="X27" s="3">
         <v>1100</v>
       </c>
       <c r="Y27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2900</v>
       </c>
       <c r="H32" s="3">
         <v>2900</v>
       </c>
       <c r="I32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2400</v>
       </c>
       <c r="S32" s="3">
         <v>2400</v>
       </c>
       <c r="T32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E33" s="3">
         <v>2200</v>
       </c>
       <c r="F33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1500</v>
       </c>
       <c r="I33" s="3">
         <v>1500</v>
       </c>
       <c r="J33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1100</v>
       </c>
       <c r="X33" s="3">
         <v>1100</v>
       </c>
       <c r="Y33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E35" s="3">
         <v>2200</v>
       </c>
       <c r="F35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1500</v>
       </c>
       <c r="I35" s="3">
         <v>1500</v>
       </c>
       <c r="J35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>1100</v>
       </c>
       <c r="X35" s="3">
         <v>1100</v>
       </c>
       <c r="Y35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>6900</v>
       </c>
       <c r="Q41" s="3">
         <v>6900</v>
       </c>
       <c r="R41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="S41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>8600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E42" s="3">
         <v>65100</v>
       </c>
-      <c r="E42" s="3">
-        <v>92200</v>
-      </c>
       <c r="F42" s="3">
+        <v>92400</v>
+      </c>
+      <c r="G42" s="3">
         <v>113000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>143900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>163500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>136600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>133600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>131400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>91400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>59300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>20300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>15900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,68 +3275,71 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G47" s="3">
         <v>2700</v>
       </c>
       <c r="H47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I47" s="3">
         <v>2600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2400</v>
       </c>
       <c r="J47" s="3">
         <v>2400</v>
       </c>
       <c r="K47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
-      </c>
-      <c r="M47" s="3">
-        <v>2100</v>
       </c>
       <c r="N47" s="3">
         <v>2100</v>
       </c>
       <c r="O47" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="P47" s="3">
         <v>2000</v>
       </c>
       <c r="Q47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R47" s="3">
         <v>1900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>1800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3244,16 +3349,19 @@
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14100</v>
       </c>
       <c r="F48" s="3">
         <v>14100</v>
@@ -3262,61 +3370,64 @@
         <v>14100</v>
       </c>
       <c r="H48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I48" s="3">
         <v>14200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>14400</v>
       </c>
       <c r="J48" s="3">
         <v>14400</v>
       </c>
       <c r="K48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="L48" s="3">
         <v>13900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>13600</v>
       </c>
       <c r="O48" s="3">
         <v>13600</v>
       </c>
       <c r="P48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>13500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>12400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>746800</v>
+      </c>
+      <c r="E54" s="3">
         <v>714800</v>
       </c>
-      <c r="E54" s="3">
-        <v>713700</v>
-      </c>
       <c r="F54" s="3">
+        <v>715500</v>
+      </c>
+      <c r="G54" s="3">
         <v>707000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>717400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>663800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>655100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>645300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>641100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>597800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>586700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>576700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>513100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>492800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>484600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>457700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>434800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>305700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,13 +4219,16 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4097,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>3000</v>
@@ -4106,7 +4249,7 @@
         <v>3000</v>
       </c>
       <c r="K61" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L61" s="3">
         <v>4000</v>
@@ -4118,19 +4261,19 @@
         <v>4000</v>
       </c>
       <c r="O61" s="3">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P61" s="3">
         <v>10000</v>
       </c>
       <c r="Q61" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="R61" s="3">
         <v>5000</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4148,10 +4291,13 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>676700</v>
+      </c>
+      <c r="E66" s="3">
         <v>646200</v>
       </c>
-      <c r="E66" s="3">
-        <v>647300</v>
-      </c>
       <c r="F66" s="3">
+        <v>649100</v>
+      </c>
+      <c r="G66" s="3">
         <v>649000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>659900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>641100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>604600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>596600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>588500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>585600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>544000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>533700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>524600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>461900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>442500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>435100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>410500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>388500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>280300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4686,7 +4854,7 @@
         <v>200</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E72" s="3">
         <v>48900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>47700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>41300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>40700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>38000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>34300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>33300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E76" s="3">
         <v>68300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>66100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>59500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>59100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>47200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>46300</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>40999</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E81" s="3">
         <v>2200</v>
       </c>
       <c r="F81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1500</v>
       </c>
       <c r="I81" s="3">
         <v>1500</v>
       </c>
       <c r="J81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>1100</v>
       </c>
       <c r="X81" s="3">
         <v>1100</v>
       </c>
       <c r="Y81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5481,14 +5680,17 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5907,14 +6124,17 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6005,14 +6226,17 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6218,14 +6448,17 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6600,14 +6846,17 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6742,10 +6994,13 @@
       <c r="W102" s="3">
         <v>0</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>6200</v>
       </c>
     </row>
